--- a/output/tabla_resumen_1.xlsx
+++ b/output/tabla_resumen_1.xlsx
@@ -78,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,12 +86,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,30 +145,28 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0">
-        <v>17</v>
-      </c>
-      <c r="E2" s="0">
-        <v>17</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0">
-        <v>0</v>
-      </c>
-      <c r="H2" s="0">
-        <v>17</v>
-      </c>
-      <c r="I2" s="0">
-        <v>15</v>
-      </c>
-      <c r="J2" s="0">
-        <v>0.66357147693634033</v>
-      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -175,29 +175,29 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
-        <v>852</v>
-      </c>
-      <c r="E3" s="0">
-        <v>852</v>
-      </c>
-      <c r="F3" s="0">
-        <v>365</v>
-      </c>
-      <c r="G3" s="0">
-        <v>40</v>
-      </c>
-      <c r="H3" s="0">
-        <v>852</v>
-      </c>
-      <c r="I3" s="0">
-        <v>59550</v>
-      </c>
-      <c r="J3" s="0">
-        <v>0.68410128355026245</v>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>118</v>
+      </c>
+      <c r="E3" s="1">
+        <v>118</v>
+      </c>
+      <c r="F3" s="1">
+        <v>69</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>118</v>
+      </c>
+      <c r="I3" s="1">
+        <v>11690</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.85600185394287109</v>
       </c>
     </row>
     <row r="4">
@@ -207,29 +207,29 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0">
-        <v>2671</v>
-      </c>
-      <c r="E4" s="0">
-        <v>2671</v>
-      </c>
-      <c r="F4" s="0">
-        <v>2042</v>
-      </c>
-      <c r="G4" s="0">
-        <v>394</v>
-      </c>
-      <c r="H4" s="0">
-        <v>2671</v>
-      </c>
-      <c r="I4" s="0">
-        <v>42885</v>
-      </c>
-      <c r="J4" s="0">
-        <v>0.72341054677963257</v>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>862</v>
+      </c>
+      <c r="E4" s="1">
+        <v>862</v>
+      </c>
+      <c r="F4" s="1">
+        <v>667</v>
+      </c>
+      <c r="G4" s="1">
+        <v>134</v>
+      </c>
+      <c r="H4" s="1">
+        <v>862</v>
+      </c>
+      <c r="I4" s="1">
+        <v>28675</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.85708880424499512</v>
       </c>
     </row>
     <row r="5">
@@ -239,29 +239,29 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0">
-        <v>2662</v>
-      </c>
-      <c r="E5" s="0">
-        <v>2662</v>
-      </c>
-      <c r="F5" s="0">
-        <v>1716</v>
-      </c>
-      <c r="G5" s="0">
-        <v>691</v>
-      </c>
-      <c r="H5" s="0">
-        <v>2662</v>
-      </c>
-      <c r="I5" s="0">
-        <v>15438</v>
-      </c>
-      <c r="J5" s="0">
-        <v>0.71912938356399536</v>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>957</v>
+      </c>
+      <c r="E5" s="1">
+        <v>957</v>
+      </c>
+      <c r="F5" s="1">
+        <v>586</v>
+      </c>
+      <c r="G5" s="1">
+        <v>290</v>
+      </c>
+      <c r="H5" s="1">
+        <v>957</v>
+      </c>
+      <c r="I5" s="1">
+        <v>11817</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.83532077074050903</v>
       </c>
     </row>
     <row r="6">
@@ -271,26 +271,26 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>44</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6" s="1">
         <v>44</v>
       </c>
-      <c r="F6" s="0">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0">
-        <v>0</v>
-      </c>
-      <c r="H6" s="0">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>44</v>
       </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="J6" s="0"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -299,27 +299,27 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0">
-        <v>65</v>
-      </c>
-      <c r="E7" s="0">
-        <v>65</v>
-      </c>
-      <c r="F7" s="0">
-        <v>41</v>
-      </c>
-      <c r="G7" s="0">
-        <v>9</v>
-      </c>
-      <c r="H7" s="0">
-        <v>65</v>
-      </c>
-      <c r="I7" s="0">
-        <v>4815</v>
-      </c>
-      <c r="J7" s="0">
-        <v>0.76043891906738281</v>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3775</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.86049050092697144</v>
       </c>
     </row>
     <row r="8">
@@ -329,27 +329,27 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0">
-        <v>92</v>
-      </c>
-      <c r="E8" s="0">
-        <v>92</v>
-      </c>
-      <c r="F8" s="0">
-        <v>71</v>
-      </c>
-      <c r="G8" s="0">
-        <v>25</v>
-      </c>
-      <c r="H8" s="0">
-        <v>92</v>
-      </c>
-      <c r="I8" s="0">
-        <v>2261</v>
-      </c>
-      <c r="J8" s="0">
-        <v>0.76044195890426636</v>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2870</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.83517616987228394</v>
       </c>
     </row>
     <row r="9">
@@ -359,27 +359,27 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0">
-        <v>52</v>
-      </c>
-      <c r="E9" s="0">
-        <v>52</v>
-      </c>
-      <c r="F9" s="0">
-        <v>38</v>
-      </c>
-      <c r="G9" s="0">
-        <v>13</v>
-      </c>
-      <c r="H9" s="0">
-        <v>52</v>
-      </c>
-      <c r="I9" s="0">
-        <v>470</v>
-      </c>
-      <c r="J9" s="0">
-        <v>0.75604265928268433</v>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1">
+        <v>607</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.81689745187759399</v>
       </c>
     </row>
   </sheetData>
